--- a/data/sampah_jabar.xlsx
+++ b/data/sampah_jabar.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\College\Summer Course 2024\Task6\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pemrograman\Summer Course\Task6-UPI-Summer-Course-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F7DC89-8D64-4897-9444-C222BA7306B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
   <si>
     <t>Tahun</t>
   </si>
@@ -68,13 +67,46 @@
   </si>
   <si>
     <t>Kota Banjar</t>
+  </si>
+  <si>
+    <t>Kab. Bandung</t>
+  </si>
+  <si>
+    <t>Kab. Kuningan</t>
+  </si>
+  <si>
+    <t>Kab. Indramayu</t>
+  </si>
+  <si>
+    <t>Kab. Sukabumi</t>
+  </si>
+  <si>
+    <t>Kab. Subang</t>
+  </si>
+  <si>
+    <t>Kab. Pangandaran</t>
+  </si>
+  <si>
+    <t>Kota Depok</t>
+  </si>
+  <si>
+    <t>Kota Cimahi</t>
+  </si>
+  <si>
+    <t>Kab. Cirebon</t>
+  </si>
+  <si>
+    <t>Kota Bandung</t>
+  </si>
+  <si>
+    <t>Kota Cirebon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -84,16 +116,40 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -101,16 +157,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,23 +582,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" customWidth="1"/>
+    <col min="5" max="5" width="37.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,173 +615,853 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1020.58</v>
+      </c>
+      <c r="E2" s="2">
+        <v>372510.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8">
+        <v>567.32000000000005</v>
+      </c>
+      <c r="E3" s="9">
+        <v>207071.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8">
+        <v>437.91</v>
+      </c>
+      <c r="E4" s="9">
+        <v>159837.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1039.1500000000001</v>
+      </c>
+      <c r="E5" s="9">
+        <v>379288.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1814.94</v>
+      </c>
+      <c r="E6" s="9">
+        <v>662451.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8">
+        <v>169.91</v>
+      </c>
+      <c r="E7" s="9">
+        <v>62018.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8">
+        <v>658.1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>240205.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8">
+        <v>177.96</v>
+      </c>
+      <c r="E9" s="9">
+        <v>64956.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1516.3</v>
+      </c>
+      <c r="E10" s="9">
+        <v>553449.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="11">
+        <v>271.33999999999997</v>
+      </c>
+      <c r="E11" s="12">
+        <v>99039.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1321.35</v>
+      </c>
+      <c r="E12" s="6">
+        <v>482291.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1228.4100000000001</v>
+      </c>
+      <c r="E13" s="9">
+        <v>448368.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8">
+        <v>440.59</v>
+      </c>
+      <c r="E14" s="9">
+        <v>160816.26999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1900.24</v>
+      </c>
+      <c r="E15" s="9">
+        <v>693586.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="8">
+        <v>171.3</v>
+      </c>
+      <c r="E16" s="9">
+        <v>62523.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8">
+        <v>673.76</v>
+      </c>
+      <c r="E17" s="9">
+        <v>245922.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
+        <v>179.24</v>
+      </c>
+      <c r="E18" s="9">
+        <v>65424.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1539.82</v>
+      </c>
+      <c r="E19" s="9">
+        <v>562034.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1295.49</v>
+      </c>
+      <c r="E20" s="9">
+        <v>472854.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="11">
+        <v>273.38</v>
+      </c>
+      <c r="E21" s="12">
+        <v>99782.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1268.33</v>
+      </c>
+      <c r="E22" s="6">
+        <v>462939.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1120.06</v>
+      </c>
+      <c r="E23" s="9">
+        <v>408821.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="8">
+        <v>572.1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>208818.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1237.1199999999999</v>
+      </c>
+      <c r="E25" s="9">
+        <v>451549.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="8">
+        <v>442.36</v>
+      </c>
+      <c r="E26" s="9">
+        <v>161462.89000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="E27" s="9">
+        <v>402455.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8">
+        <v>673.76</v>
+      </c>
+      <c r="E28" s="9">
+        <v>245922.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="8">
+        <v>180.26</v>
+      </c>
+      <c r="E29" s="9">
+        <v>65795.649999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1592.55</v>
+      </c>
+      <c r="E30" s="9">
+        <v>581280.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="11">
+        <v>204.47</v>
+      </c>
+      <c r="E31" s="12">
+        <v>74631.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1283.1600000000001</v>
+      </c>
+      <c r="E32" s="6">
+        <v>468351.94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1112.25</v>
+      </c>
+      <c r="E33" s="9">
+        <v>405969.55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="8">
+        <v>574.67999999999995</v>
+      </c>
+      <c r="E34" s="9">
+        <v>209758.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="8">
+        <v>599.4</v>
+      </c>
+      <c r="E35" s="9">
+        <v>218782.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="8">
+        <v>442.72</v>
+      </c>
+      <c r="E36" s="9">
+        <v>161592.01999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1113.6500000000001</v>
+      </c>
+      <c r="E37" s="9">
+        <v>406481.07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1003.94</v>
+      </c>
+      <c r="E38" s="9">
+        <v>366436.49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="9">
+        <v>2250.35</v>
+      </c>
+      <c r="E39" s="9">
+        <v>821379.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="8">
+        <v>744.46</v>
+      </c>
+      <c r="E40" s="9">
+        <v>271727.57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="11">
+        <v>180.35</v>
+      </c>
+      <c r="E41" s="12">
+        <v>65828.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="13">
         <v>2023</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B42" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D42" s="15">
         <v>1121.82</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E42" s="15">
         <v>409465.37</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="13">
         <v>2023</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B43" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D43" s="16">
         <v>499.11</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E43" s="15">
         <v>182174.42</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="13">
         <v>2023</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B44" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D44" s="16">
         <v>478.92</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E44" s="15">
         <v>174806.09</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="13">
         <v>2023</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B45" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D45" s="15">
         <v>1054.1300000000001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E45" s="15">
         <v>384758.32</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="13">
         <v>2023</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B46" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D46" s="15">
         <v>2219</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E46" s="15">
         <v>809935</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="13">
         <v>2023</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B47" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D47" s="16">
         <v>779.81</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E47" s="15">
         <v>284631.59999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="13">
         <v>2023</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B48" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D48" s="16">
         <v>184.41</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E48" s="15">
         <v>67308.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="13">
         <v>2023</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B49" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D49" s="15">
         <v>1747.34</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E49" s="15">
         <v>637778.59</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="13">
         <v>2023</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B50" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D50" s="16">
         <v>323.17</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E50" s="15">
         <v>117955.24</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="13">
         <v>2023</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B51" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D51" s="16">
         <v>86.64</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E51" s="15">
         <v>31624.18</v>
       </c>
     </row>
